--- a/products analysis/lockmassProdComparison.xlsx
+++ b/products analysis/lockmassProdComparison.xlsx
@@ -1313,7 +1313,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/products analysis/lockmassProdComparison.xlsx
+++ b/products analysis/lockmassProdComparison.xlsx
@@ -1,21 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Steven\Target Decoy\products analysis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819351DB-7040-4D2B-A919-9E27BBFC2F64}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="960" windowWidth="27075" windowHeight="11745"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="2" r:id="rId1"/>
     <sheet name="Comparison with house dust" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>House Dust</t>
   </si>
@@ -88,11 +102,14 @@
   <si>
     <t>All product lockmasses (96 samples)</t>
   </si>
+  <si>
+    <t>Consumer Products (with single zeros allowed)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -123,7 +140,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,6 +159,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -155,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -164,10 +187,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -178,12 +202,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -225,7 +252,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -291,6 +317,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-930F-4FDD-AD41-DB982277E653}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -348,6 +379,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-930F-4FDD-AD41-DB982277E653}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -405,6 +441,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-930F-4FDD-AD41-DB982277E653}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -426,6 +467,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -459,7 +501,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -473,7 +514,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -489,7 +529,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -523,7 +563,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -549,6 +588,11 @@
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-DF66-4E01-ACB9-C5013A719AB5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -562,6 +606,11 @@
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-DF66-4E01-ACB9-C5013A719AB5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -575,6 +624,11 @@
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-DF66-4E01-ACB9-C5013A719AB5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -611,6 +665,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-DF66-4E01-ACB9-C5013A719AB5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -631,6 +690,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -664,7 +724,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -689,7 +748,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -723,7 +782,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -789,6 +847,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-273D-43E6-8299-06430C0F18EA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -846,6 +909,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-273D-43E6-8299-06430C0F18EA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -866,6 +934,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -899,7 +968,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -913,7 +981,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -945,7 +1012,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -975,7 +1048,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1005,7 +1084,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1066,7 +1151,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1099,9 +1184,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1134,6 +1236,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1309,11 +1428,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1482,11 +1601,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AG48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1500,12 +1619,15 @@
     <col min="19" max="19" width="9.140625" style="4"/>
     <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9.140625" style="4"/>
-    <col min="25" max="25" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="10" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8" style="4" customWidth="1"/>
+    <col min="29" max="30" width="10" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1539,8 +1661,17 @@
       <c r="V1" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>121.028955</v>
       </c>
@@ -1574,11 +1705,17 @@
       <c r="V2" s="2">
         <v>121.028955</v>
       </c>
-      <c r="Z2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y2" s="10">
+        <v>121.028955</v>
+      </c>
+      <c r="Z2">
+        <v>100.932</v>
+      </c>
+      <c r="AA2" s="4">
+        <v>100.932</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>129.05517</v>
       </c>
@@ -1612,23 +1749,20 @@
       <c r="V3" s="1">
         <v>129.05517</v>
       </c>
-      <c r="Y3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y3" s="10">
+        <v>129.05517</v>
+      </c>
+      <c r="Z3">
+        <v>102.018</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>102.018</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>131.034435</v>
       </c>
@@ -1662,23 +1796,32 @@
       <c r="V4" s="2">
         <v>131.034435</v>
       </c>
-      <c r="Y4" s="1" t="s">
-        <v>10</v>
+      <c r="Y4" s="4">
+        <v>131.034435</v>
       </c>
       <c r="Z4">
+        <v>112.98399999999999</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>112.98399999999999</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD4" t="s">
         <v>1</v>
       </c>
-      <c r="AA4">
-        <v>1</v>
-      </c>
-      <c r="AB4">
-        <v>1</v>
-      </c>
-      <c r="AC4">
+      <c r="AE4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>135.04460499999999</v>
       </c>
@@ -1712,23 +1855,32 @@
       <c r="V5" s="6">
         <v>135.04460499999999</v>
       </c>
-      <c r="Y5" t="s">
-        <v>11</v>
+      <c r="Y5" s="4">
+        <v>135.04460499999999</v>
       </c>
       <c r="Z5">
-        <v>4</v>
-      </c>
-      <c r="AA5">
-        <v>8</v>
-      </c>
-      <c r="AB5">
-        <v>4</v>
-      </c>
-      <c r="AC5">
+        <v>117.054</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>117.054</v>
+      </c>
+      <c r="AC5" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD5">
+        <v>1</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
+      </c>
+      <c r="AF5">
+        <v>1</v>
+      </c>
+      <c r="AG5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>137.02386999999999</v>
       </c>
@@ -1762,23 +1914,32 @@
       <c r="V6" s="2">
         <v>137.02386999999999</v>
       </c>
-      <c r="Y6" s="2" t="s">
-        <v>17</v>
+      <c r="Y6" s="4">
+        <v>137.02386999999999</v>
       </c>
       <c r="Z6">
-        <v>26</v>
-      </c>
-      <c r="AA6">
-        <v>25</v>
-      </c>
-      <c r="AB6">
-        <v>24</v>
-      </c>
-      <c r="AC6">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+        <v>117.91800000000001</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>117.91800000000001</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD6">
+        <v>4</v>
+      </c>
+      <c r="AE6">
+        <v>8</v>
+      </c>
+      <c r="AF6">
+        <v>4</v>
+      </c>
+      <c r="AG6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>143.034435</v>
       </c>
@@ -1806,23 +1967,32 @@
       <c r="V7" s="2">
         <v>143.034435</v>
       </c>
-      <c r="Y7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z7">
-        <v>20</v>
-      </c>
-      <c r="AA7">
+      <c r="Y7" s="10">
+        <v>143.034435</v>
+      </c>
+      <c r="Z7" s="10">
+        <v>121.02800000000001</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>121.02800000000001</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD7">
+        <v>26</v>
+      </c>
+      <c r="AE7">
+        <v>25</v>
+      </c>
+      <c r="AF7">
+        <v>24</v>
+      </c>
+      <c r="AG7">
         <v>21</v>
       </c>
-      <c r="AB7">
-        <v>22</v>
-      </c>
-      <c r="AC7">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>145.050085</v>
       </c>
@@ -1850,8 +2020,32 @@
       <c r="V8" s="2">
         <v>145.050085</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y8" s="4">
+        <v>145.050085</v>
+      </c>
+      <c r="Z8">
+        <v>129.018</v>
+      </c>
+      <c r="AA8" s="4">
+        <v>129.018</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD8">
+        <v>20</v>
+      </c>
+      <c r="AE8">
+        <v>21</v>
+      </c>
+      <c r="AF8">
+        <v>22</v>
+      </c>
+      <c r="AG8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>151.03952000000001</v>
       </c>
@@ -1879,8 +2073,17 @@
       <c r="V9" s="6">
         <v>151.03952000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y9" s="4">
+        <v>151.03952000000001</v>
+      </c>
+      <c r="Z9" s="10">
+        <v>129.054</v>
+      </c>
+      <c r="AA9" s="4">
+        <v>129.054</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>155.07082</v>
       </c>
@@ -1908,8 +2111,17 @@
       <c r="V10" s="2">
         <v>155.07082</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y10" s="10">
+        <v>155.07082</v>
+      </c>
+      <c r="Z10">
+        <v>131.07</v>
+      </c>
+      <c r="AA10" s="4">
+        <v>131.07</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>165.01878500000001</v>
       </c>
@@ -1934,8 +2146,17 @@
       <c r="V11" s="6">
         <v>165.01878500000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y11" s="4">
+        <v>165.01878500000001</v>
+      </c>
+      <c r="Z11">
+        <v>132.922</v>
+      </c>
+      <c r="AA11" s="4">
+        <v>132.922</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>169.08646999999999</v>
       </c>
@@ -1960,8 +2181,17 @@
       <c r="V12" s="2">
         <v>169.08646999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y12" s="10">
+        <v>169.08646999999999</v>
+      </c>
+      <c r="Z12">
+        <v>138.018</v>
+      </c>
+      <c r="AA12" s="4">
+        <v>138.018</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>171.06573499999999</v>
       </c>
@@ -1988,8 +2218,17 @@
       <c r="V13" s="2">
         <v>171.06573499999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y13" s="4">
+        <v>171.06573499999999</v>
+      </c>
+      <c r="Z13" s="10">
+        <v>143.03399999999999</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>143.03399999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>171.10212000000001</v>
       </c>
@@ -2014,8 +2253,17 @@
       <c r="V14" s="2">
         <v>171.10212000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y14" s="4">
+        <v>171.10212000000001</v>
+      </c>
+      <c r="Z14">
+        <v>143.07</v>
+      </c>
+      <c r="AA14" s="4">
+        <v>143.07</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>173.08138500000001</v>
       </c>
@@ -2037,8 +2285,17 @@
       <c r="V15" s="2">
         <v>173.08138500000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y15" s="4">
+        <v>173.08138500000001</v>
+      </c>
+      <c r="Z15">
+        <v>145.08600000000001</v>
+      </c>
+      <c r="AA15" s="4">
+        <v>145.08600000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>179.034435</v>
       </c>
@@ -2060,8 +2317,17 @@
       <c r="V16" s="6">
         <v>179.034435</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y16" s="4">
+        <v>179.034435</v>
+      </c>
+      <c r="Z16">
+        <v>148.06</v>
+      </c>
+      <c r="AA16" s="4">
+        <v>148.06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>181.050085</v>
       </c>
@@ -2083,8 +2349,17 @@
       <c r="V17" s="6">
         <v>181.050085</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y17" s="4">
+        <v>181.050085</v>
+      </c>
+      <c r="Z17" s="10">
+        <v>155.07</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>155.07</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>183.06573499999999</v>
       </c>
@@ -2106,8 +2381,17 @@
       <c r="V18" s="2">
         <v>183.06573499999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y18" s="4">
+        <v>183.06573499999999</v>
+      </c>
+      <c r="Z18">
+        <v>157.08600000000001</v>
+      </c>
+      <c r="AA18" s="4">
+        <v>157.08600000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>185.08138500000001</v>
       </c>
@@ -2129,8 +2413,17 @@
       <c r="V19" s="2">
         <v>185.08138500000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y19" s="4">
+        <v>185.08138500000001</v>
+      </c>
+      <c r="Z19">
+        <v>157.12200000000001</v>
+      </c>
+      <c r="AA19" s="4">
+        <v>157.12200000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>187.09703500000001</v>
       </c>
@@ -2152,8 +2445,17 @@
       <c r="V20" s="2">
         <v>187.09703500000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y20" s="4">
+        <v>187.09703500000001</v>
+      </c>
+      <c r="Z20">
+        <v>165.04</v>
+      </c>
+      <c r="AA20" s="4">
+        <v>165.04</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>191.10720499999999</v>
       </c>
@@ -2175,8 +2477,17 @@
       <c r="V21" s="6">
         <v>191.10720499999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y21" s="4">
+        <v>191.10720499999999</v>
+      </c>
+      <c r="Z21">
+        <v>167.07</v>
+      </c>
+      <c r="AA21" s="4">
+        <v>167.07</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>193.08646999999999</v>
       </c>
@@ -2198,8 +2509,17 @@
       <c r="V22" s="6">
         <v>193.08646999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y22" s="4">
+        <v>193.08646999999999</v>
+      </c>
+      <c r="Z22" s="10">
+        <v>169.08600000000001</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>169.08600000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>197.08138500000001</v>
       </c>
@@ -2221,8 +2541,17 @@
       <c r="V23" s="2">
         <v>197.08138500000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y23" s="4">
+        <v>197.08138500000001</v>
+      </c>
+      <c r="Z23">
+        <v>171.13800000000001</v>
+      </c>
+      <c r="AA23" s="4">
+        <v>171.13800000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>199.06065000000001</v>
       </c>
@@ -2244,8 +2573,17 @@
       <c r="V24" s="1">
         <v>199.06065000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y24" s="10">
+        <v>199.06065000000001</v>
+      </c>
+      <c r="Z24">
+        <v>173.04400000000001</v>
+      </c>
+      <c r="AA24" s="4">
+        <v>173.04400000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>199.09703500000001</v>
       </c>
@@ -2267,8 +2605,17 @@
       <c r="V25" s="2">
         <v>199.09703500000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y25" s="4">
+        <v>199.09703500000001</v>
+      </c>
+      <c r="Z25">
+        <v>174.048</v>
+      </c>
+      <c r="AA25" s="4">
+        <v>174.048</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>207.02934999999999</v>
       </c>
@@ -2290,8 +2637,17 @@
       <c r="V26" s="6">
         <v>207.02934999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y26" s="4">
+        <v>207.02934999999999</v>
+      </c>
+      <c r="Z26">
+        <v>175.06</v>
+      </c>
+      <c r="AA26" s="4">
+        <v>175.06</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>207.10212000000001</v>
       </c>
@@ -2307,12 +2663,21 @@
       <c r="V27" s="6">
         <v>207.10212000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y27" s="4">
+        <v>207.10212000000001</v>
+      </c>
+      <c r="Z27">
+        <v>182.988</v>
+      </c>
+      <c r="AA27" s="4">
+        <v>182.988</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>209.04499999999999</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="8" t="s">
         <v>6</v>
       </c>
       <c r="M28" s="6">
@@ -2327,8 +2692,17 @@
       <c r="V28" s="6">
         <v>209.04499999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y28" s="4">
+        <v>209.04499999999999</v>
+      </c>
+      <c r="Z28">
+        <v>187.06</v>
+      </c>
+      <c r="AA28" s="4">
+        <v>187.06</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>209.08138500000001</v>
       </c>
@@ -2344,8 +2718,17 @@
       <c r="V29" s="6">
         <v>209.08138500000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y29" s="4">
+        <v>209.08138500000001</v>
+      </c>
+      <c r="Z29">
+        <v>194.066</v>
+      </c>
+      <c r="AA29" s="4">
+        <v>194.066</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>211.06065000000001</v>
       </c>
@@ -2361,8 +2744,17 @@
       <c r="V30" s="6">
         <v>211.06065000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y30" s="4">
+        <v>211.06065000000001</v>
+      </c>
+      <c r="Z30" s="10">
+        <v>199.06</v>
+      </c>
+      <c r="AA30" s="2">
+        <v>199.06</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>211.09703500000001</v>
       </c>
@@ -2388,8 +2780,17 @@
       <c r="V31" s="2">
         <v>211.09703500000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y31" s="4">
+        <v>211.09703500000001</v>
+      </c>
+      <c r="Z31">
+        <v>201.07599999999999</v>
+      </c>
+      <c r="AA31" s="4">
+        <v>201.07599999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>213.0763</v>
       </c>
@@ -2415,8 +2816,17 @@
       <c r="V32" s="1">
         <v>213.0763</v>
       </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y32" s="10">
+        <v>213.0763</v>
+      </c>
+      <c r="Z32">
+        <v>201.11199999999999</v>
+      </c>
+      <c r="AA32" s="4">
+        <v>201.11199999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>221.08138500000001</v>
       </c>
@@ -2435,8 +2845,17 @@
       <c r="V33" s="2">
         <v>221.08138500000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y33" s="4">
+        <v>221.08138500000001</v>
+      </c>
+      <c r="Z33" s="10">
+        <v>213.07599999999999</v>
+      </c>
+      <c r="AA33" s="2">
+        <v>213.07599999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>221.11777000000001</v>
       </c>
@@ -2452,8 +2871,17 @@
       <c r="V34" s="6">
         <v>221.11777000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y34" s="4">
+        <v>221.11777000000001</v>
+      </c>
+      <c r="Z34">
+        <v>215.09200000000001</v>
+      </c>
+      <c r="AA34" s="4">
+        <v>215.09200000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>223.09703500000001</v>
       </c>
@@ -2469,8 +2897,17 @@
       <c r="V35" s="6">
         <v>223.09703500000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y35" s="4">
+        <v>223.09703500000001</v>
+      </c>
+      <c r="Z35">
+        <v>215.12799999999999</v>
+      </c>
+      <c r="AA35" s="4">
+        <v>215.12799999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>225.14906999999999</v>
       </c>
@@ -2486,8 +2923,17 @@
       <c r="V36" s="6">
         <v>225.14906999999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y36" s="4">
+        <v>225.14906999999999</v>
+      </c>
+      <c r="Z36">
+        <v>225.07599999999999</v>
+      </c>
+      <c r="AA36" s="4">
+        <v>225.07599999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>233.154155</v>
       </c>
@@ -2503,20 +2949,29 @@
       <c r="V37" s="6">
         <v>233.154155</v>
       </c>
-    </row>
-    <row r="38" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y37" s="4">
+        <v>233.154155</v>
+      </c>
+      <c r="Z37">
+        <v>227.12799999999999</v>
+      </c>
+      <c r="AA37" s="4">
+        <v>227.12799999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>239.12833499999999</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
       <c r="M38" s="2">
         <v>239.12833499999999</v>
       </c>
@@ -2529,18 +2984,27 @@
       <c r="V38" s="2">
         <v>239.12833499999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y38" s="10">
+        <v>239.12833499999999</v>
+      </c>
+      <c r="Z38">
+        <v>239.09200000000001</v>
+      </c>
+      <c r="AA38" s="4">
+        <v>239.09200000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>249.14906999999999</v>
       </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
       <c r="M39" s="6">
         <v>249.14906999999999</v>
       </c>
@@ -2553,8 +3017,17 @@
       <c r="V39" s="6">
         <v>249.14906999999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y39" s="4">
+        <v>249.14906999999999</v>
+      </c>
+      <c r="Z39" s="10">
+        <v>239.12799999999999</v>
+      </c>
+      <c r="AA39" s="2">
+        <v>239.12799999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>251.09195</v>
       </c>
@@ -2570,8 +3043,17 @@
       <c r="V40" s="6">
         <v>251.09195</v>
       </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y40" s="4">
+        <v>251.09195</v>
+      </c>
+      <c r="Z40">
+        <v>241.108</v>
+      </c>
+      <c r="AA40" s="4">
+        <v>241.108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>251.12833499999999</v>
       </c>
@@ -2587,8 +3069,17 @@
       <c r="V41" s="6">
         <v>251.12833499999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y41" s="4">
+        <v>251.12833499999999</v>
+      </c>
+      <c r="Z41">
+        <v>259.08199999999999</v>
+      </c>
+      <c r="AA41" s="4">
+        <v>259.08199999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>253.14398499999999</v>
       </c>
@@ -2604,8 +3095,17 @@
       <c r="V42" s="2">
         <v>253.14398499999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y42" s="4">
+        <v>253.14398499999999</v>
+      </c>
+      <c r="Z42">
+        <v>265.14800000000002</v>
+      </c>
+      <c r="AA42" s="4">
+        <v>265.14800000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>255.232405</v>
       </c>
@@ -2621,8 +3121,11 @@
       <c r="V43" s="2">
         <v>255.232405</v>
       </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y43" s="4">
+        <v>255.232405</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>269.13889999999998</v>
       </c>
@@ -2638,8 +3141,11 @@
       <c r="V44" s="6">
         <v>269.13889999999998</v>
       </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y44" s="4">
+        <v>269.13889999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>277.18036999999998</v>
       </c>
@@ -2655,8 +3161,11 @@
       <c r="V45" s="6">
         <v>277.18036999999998</v>
       </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y45" s="4">
+        <v>277.18036999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>283.26370500000002</v>
       </c>
@@ -2672,8 +3181,11 @@
       <c r="V46" s="2">
         <v>283.26370500000002</v>
       </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y46" s="4">
+        <v>283.26370500000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>293.17528499999997</v>
       </c>
@@ -2689,8 +3201,11 @@
       <c r="V47" s="6">
         <v>293.17528499999997</v>
       </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y47" s="4">
+        <v>293.17528499999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>309.17020000000002</v>
       </c>
@@ -2704,6 +3219,9 @@
         <v>309.17020000000002</v>
       </c>
       <c r="V48" s="6">
+        <v>309.17020000000002</v>
+      </c>
+      <c r="Y48" s="4">
         <v>309.17020000000002</v>
       </c>
     </row>
